--- a/input_volume.xlsx
+++ b/input_volume.xlsx
@@ -1,54 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FILab\BRL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BE7C1B-A699-4B74-BE85-7C7A5D997DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="6195" yWindow="3870" windowWidth="38610" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>0_0</t>
+    <t>R109</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0_2</t>
+    <t>R106</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1_3</t>
+    <t>R81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2_2</t>
+    <t>R69</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3_2</t>
+    <t>R28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3_1</t>
+    <t>R6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4_1</t>
+    <t>R37</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4_2</t>
+    <t>R38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -56,8 +70,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -103,15 +124,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -153,7 +182,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +214,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +266,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,14 +459,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -456,7 +523,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -485,7 +552,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -514,7 +581,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -543,7 +610,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -572,7 +639,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -601,7 +668,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -630,7 +697,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -659,7 +726,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -688,7 +755,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -717,7 +784,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -746,7 +813,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -775,7 +842,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -804,7 +871,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -833,7 +900,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -862,7 +929,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -891,7 +958,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -920,7 +987,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -949,7 +1016,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -978,7 +1045,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1007,7 +1074,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1036,7 +1103,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1065,7 +1132,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1094,7 +1161,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1123,7 +1190,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1152,7 +1219,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1181,7 +1248,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1210,7 +1277,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1239,7 +1306,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1268,7 +1335,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1297,7 +1364,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1326,7 +1393,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1355,7 +1422,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1384,7 +1451,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1413,7 +1480,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1442,7 +1509,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1471,7 +1538,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1500,7 +1567,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1529,7 +1596,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1558,7 +1625,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1587,7 +1654,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1616,7 +1683,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1645,7 +1712,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1674,7 +1741,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1703,7 +1770,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1732,7 +1799,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1761,7 +1828,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1790,7 +1857,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1819,7 +1886,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1848,7 +1915,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1877,7 +1944,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1906,7 +1973,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1935,7 +2002,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1964,7 +2031,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1993,7 +2060,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2022,7 +2089,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2051,7 +2118,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2080,7 +2147,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2109,7 +2176,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2138,7 +2205,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2167,7 +2234,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2196,7 +2263,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2225,7 +2292,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2254,7 +2321,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2283,7 +2350,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2312,7 +2379,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2341,7 +2408,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2370,7 +2437,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2399,7 +2466,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2428,7 +2495,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2457,7 +2524,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2486,7 +2553,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2515,7 +2582,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2544,7 +2611,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2573,7 +2640,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2602,7 +2669,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2631,7 +2698,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2660,7 +2727,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2689,7 +2756,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2718,7 +2785,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2747,7 +2814,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2776,7 +2843,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2805,7 +2872,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2834,7 +2901,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2863,7 +2930,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2892,7 +2959,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2921,7 +2988,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2950,7 +3017,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2979,7 +3046,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3008,7 +3075,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3037,7 +3104,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3066,7 +3133,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3095,7 +3162,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3124,7 +3191,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3153,7 +3220,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3182,7 +3249,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3211,7 +3278,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3240,7 +3307,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3269,7 +3336,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3298,7 +3365,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3327,7 +3394,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3356,7 +3423,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3385,7 +3452,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3414,7 +3481,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3443,7 +3510,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3472,7 +3539,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3501,7 +3568,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3530,7 +3597,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3559,7 +3626,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3588,7 +3655,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3617,7 +3684,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3646,7 +3713,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3675,7 +3742,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3704,7 +3771,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3733,7 +3800,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3762,7 +3829,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3791,7 +3858,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3820,7 +3887,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3849,7 +3916,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3878,7 +3945,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3908,6 +3975,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>